--- a/public/static/xlsx/管理员列表模版.xlsx
+++ b/public/static/xlsx/管理员列表模版.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>已有管理员账号</t>
   </si>
@@ -25,25 +25,19 @@
     <t>管理员昵称（可选）</t>
   </si>
   <si>
-    <t>管理员权限选择（超级管理员1、普通管理员2）</t>
-  </si>
-  <si>
-    <t>管理员头像地址（完整URL）</t>
+    <t>管理员权限选择（超级管理员1、普通管理员2， 默认2）</t>
+  </si>
+  <si>
+    <t>管理员头像地址（完整URL，可选）</t>
+  </si>
+  <si>
+    <t>是否可用（可选，可用true，不可用false，默认true）</t>
   </si>
   <si>
     <t>qishilong</t>
   </si>
   <si>
     <t>admin</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -420,14 +414,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="4" width="20" customWidth="1"/>
-    <col min="5" max="6" width="50" customWidth="1"/>
+    <col min="5" max="7" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,31 +439,19 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/public/static/xlsx/管理员列表模版.xlsx
+++ b/public/static/xlsx/管理员列表模版.xlsx
@@ -16,19 +16,19 @@
     <t>已有管理员账号</t>
   </si>
   <si>
-    <t>管理员账号（管理员账号不可重复）</t>
-  </si>
-  <si>
-    <t>管理员密码（可选）</t>
-  </si>
-  <si>
-    <t>管理员昵称（可选）</t>
-  </si>
-  <si>
-    <t>管理员权限选择（超级管理员1、普通管理员2， 默认2）</t>
-  </si>
-  <si>
-    <t>管理员头像地址（完整URL，可选）</t>
+    <t>管理员账号（必填，管理员账号不可重复）</t>
+  </si>
+  <si>
+    <t>管理员密码（可选，默认是123123）</t>
+  </si>
+  <si>
+    <t>管理员昵称（可选，默认是新增管理员）</t>
+  </si>
+  <si>
+    <t>管理员权限选择（必填，超级管理员1，普通管理员2）</t>
+  </si>
+  <si>
+    <t>管理员头像地址（可选，完整URL，默认为系统生成的随机头像）</t>
   </si>
   <si>
     <t>是否可用（可选，可用true，不可用false，默认true）</t>
@@ -417,8 +417,8 @@
   <dimension ref="A1:G3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="4" width="20" customWidth="1"/>
-    <col min="5" max="7" width="50" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="7" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/public/static/xlsx/管理员列表模版.xlsx
+++ b/public/static/xlsx/管理员列表模版.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>已有管理员账号</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>admin</t>
+  </si>
+  <si>
+    <t>putong</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
@@ -454,6 +457,11 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
